--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H2">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I2">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J2">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N2">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O2">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P2">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q2">
-        <v>5217.71995086851</v>
+        <v>4045.783029251551</v>
       </c>
       <c r="R2">
-        <v>46959.47955781659</v>
+        <v>36412.04726326396</v>
       </c>
       <c r="S2">
-        <v>0.04770037279903584</v>
+        <v>0.0470602550234127</v>
       </c>
       <c r="T2">
-        <v>0.05131298006168173</v>
+        <v>0.04832801607259643</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H3">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I3">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J3">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P3">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q3">
-        <v>8039.786460258272</v>
+        <v>7175.137302738221</v>
       </c>
       <c r="R3">
-        <v>72358.07814232445</v>
+        <v>64576.23572464399</v>
       </c>
       <c r="S3">
-        <v>0.07349969239248365</v>
+        <v>0.08346067716768496</v>
       </c>
       <c r="T3">
-        <v>0.07906622168687717</v>
+        <v>0.08570903293199283</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H4">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I4">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J4">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N4">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O4">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P4">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q4">
-        <v>3486.891794135013</v>
+        <v>4121.257280324721</v>
       </c>
       <c r="R4">
-        <v>31382.02614721512</v>
+        <v>37091.31552292249</v>
       </c>
       <c r="S4">
-        <v>0.03187714941704632</v>
+        <v>0.04793816604274424</v>
       </c>
       <c r="T4">
-        <v>0.03429137837877044</v>
+        <v>0.0492295772271515</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H5">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I5">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J5">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N5">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O5">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P5">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q5">
-        <v>2022.933659458442</v>
+        <v>1331.863335041547</v>
       </c>
       <c r="R5">
-        <v>12137.60195675065</v>
+        <v>7991.180010249283</v>
       </c>
       <c r="S5">
-        <v>0.0184936506007425</v>
+        <v>0.01549213780131537</v>
       </c>
       <c r="T5">
-        <v>0.01326284986690627</v>
+        <v>0.01060632139637951</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H6">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I6">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J6">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N6">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O6">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P6">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q6">
-        <v>5893.389169585939</v>
+        <v>3558.40288527634</v>
       </c>
       <c r="R6">
-        <v>53040.50252627346</v>
+        <v>32025.62596748706</v>
       </c>
       <c r="S6">
-        <v>0.05387733781922439</v>
+        <v>0.04139108450611383</v>
       </c>
       <c r="T6">
-        <v>0.05795776005654683</v>
+        <v>0.04250612318778304</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I7">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J7">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N7">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O7">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P7">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q7">
-        <v>14834.50118380213</v>
+        <v>12888.69860428409</v>
       </c>
       <c r="R7">
-        <v>133510.5106542192</v>
+        <v>115998.2874385568</v>
       </c>
       <c r="S7">
-        <v>0.1356169444543139</v>
+        <v>0.149920408200862</v>
       </c>
       <c r="T7">
-        <v>0.1458879492646454</v>
+        <v>0.1539591294933884</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I8">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J8">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P8">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q8">
-        <v>22857.9193374235</v>
+        <v>22857.91933742349</v>
       </c>
       <c r="R8">
         <v>205721.2740368115</v>
       </c>
       <c r="S8">
-        <v>0.2089669978596497</v>
+        <v>0.2658816613610506</v>
       </c>
       <c r="T8">
-        <v>0.2247931989944202</v>
+        <v>0.2730442747765134</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I9">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J9">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N9">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O9">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P9">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q9">
-        <v>9913.583123462911</v>
+        <v>13129.13781405707</v>
       </c>
       <c r="R9">
-        <v>89222.24811116622</v>
+        <v>118162.2403265136</v>
       </c>
       <c r="S9">
-        <v>0.09062993323064379</v>
+        <v>0.1527171796658008</v>
       </c>
       <c r="T9">
-        <v>0.09749382832810004</v>
+        <v>0.1568312434724073</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I10">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J10">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N10">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O10">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P10">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q10">
-        <v>5751.403304233354</v>
+        <v>4242.932698895314</v>
       </c>
       <c r="R10">
-        <v>34508.41982540012</v>
+        <v>25457.59619337189</v>
       </c>
       <c r="S10">
-        <v>0.05257930366382962</v>
+        <v>0.0493534856944933</v>
       </c>
       <c r="T10">
-        <v>0.03770761250198214</v>
+        <v>0.0337886828803556</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I11">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J11">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N11">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O11">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P11">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q11">
-        <v>16755.49654562755</v>
+        <v>11336.04594446729</v>
       </c>
       <c r="R11">
-        <v>150799.468910648</v>
+        <v>102024.4135002056</v>
       </c>
       <c r="S11">
-        <v>0.1531786755872849</v>
+        <v>0.131860064972996</v>
       </c>
       <c r="T11">
-        <v>0.1647797252948103</v>
+        <v>0.1354122568221994</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H12">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I12">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J12">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N12">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O12">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P12">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q12">
-        <v>15.74774767785267</v>
+        <v>21.42383939691623</v>
       </c>
       <c r="R12">
-        <v>141.729729100674</v>
+        <v>192.814554572246</v>
       </c>
       <c r="S12">
-        <v>0.000143965839878717</v>
+        <v>0.0002492005474119623</v>
       </c>
       <c r="T12">
-        <v>0.0001548691517020846</v>
+        <v>0.0002559137865834664</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H13">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I13">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J13">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P13">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q13">
-        <v>24.26510616747245</v>
+        <v>37.99486727619289</v>
       </c>
       <c r="R13">
-        <v>218.385955507252</v>
+        <v>341.953805485736</v>
       </c>
       <c r="S13">
-        <v>0.0002218314936592097</v>
+        <v>0.0004419535429039394</v>
       </c>
       <c r="T13">
-        <v>0.0002386319926501326</v>
+        <v>0.000453859374841391</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H14">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I14">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J14">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N14">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O14">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P14">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q14">
-        <v>10.52388642377655</v>
+        <v>21.82350201399267</v>
       </c>
       <c r="R14">
-        <v>94.71497781398898</v>
+        <v>196.411518125934</v>
       </c>
       <c r="S14">
-        <v>9.620932331281885E-05</v>
+        <v>0.0002538493940127207</v>
       </c>
       <c r="T14">
-        <v>0.0001034957758023718</v>
+        <v>0.0002606878689408338</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H15">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I15">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J15">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N15">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O15">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P15">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q15">
-        <v>6.1054731066745</v>
+        <v>7.052683246301001</v>
       </c>
       <c r="R15">
-        <v>36.63283864004701</v>
+        <v>42.31609947780601</v>
       </c>
       <c r="S15">
-        <v>5.581620823754335E-05</v>
+        <v>8.203630045669435E-05</v>
       </c>
       <c r="T15">
-        <v>4.002898107985199E-05</v>
+        <v>5.616418986021277E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H16">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I16">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J16">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N16">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O16">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P16">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q16">
-        <v>17.78700399483511</v>
+        <v>18.84299068251978</v>
       </c>
       <c r="R16">
-        <v>160.083035953516</v>
+        <v>169.586916142678</v>
       </c>
       <c r="S16">
-        <v>0.0001626087121426184</v>
+        <v>0.0002191803021842265</v>
       </c>
       <c r="T16">
-        <v>0.0001749239495293542</v>
+        <v>0.0002250848228826213</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H17">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I17">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J17">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N17">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O17">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P17">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q17">
-        <v>3073.748000506029</v>
+        <v>226.1980984037467</v>
       </c>
       <c r="R17">
-        <v>18442.48800303617</v>
+        <v>1357.18859042248</v>
       </c>
       <c r="S17">
-        <v>0.02810019067620203</v>
+        <v>0.002631119889456994</v>
       </c>
       <c r="T17">
-        <v>0.02015224674759152</v>
+        <v>0.001801333265807769</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H18">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I18">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J18">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>153.522748</v>
       </c>
       <c r="O18">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P18">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q18">
-        <v>4736.221527681043</v>
+        <v>401.1590344639467</v>
       </c>
       <c r="R18">
-        <v>28417.32916608626</v>
+        <v>2406.954206783681</v>
       </c>
       <c r="S18">
-        <v>0.04329851633597155</v>
+        <v>0.004666252819373704</v>
       </c>
       <c r="T18">
-        <v>0.03105183146483385</v>
+        <v>0.003194638322597248</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H19">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I19">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J19">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N19">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O19">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P19">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q19">
-        <v>2054.120723443456</v>
+        <v>230.41783335932</v>
       </c>
       <c r="R19">
-        <v>12324.72434066074</v>
+        <v>1382.50700015592</v>
       </c>
       <c r="S19">
-        <v>0.01877876260226817</v>
+        <v>0.002680203540682162</v>
       </c>
       <c r="T19">
-        <v>0.01346731991736437</v>
+        <v>0.001834937212976231</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H20">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I20">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J20">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N20">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O20">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P20">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q20">
-        <v>1191.706022835074</v>
+        <v>74.46394221882002</v>
       </c>
       <c r="R20">
-        <v>4766.824091340298</v>
+        <v>297.8557688752801</v>
       </c>
       <c r="S20">
-        <v>0.01089457120952368</v>
+        <v>0.0008661591799485633</v>
       </c>
       <c r="T20">
-        <v>0.005208744897935613</v>
+        <v>0.0003953301027389077</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H21">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I21">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J21">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N21">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O21">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P21">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q21">
-        <v>3471.783335785086</v>
+        <v>198.9488710057734</v>
       </c>
       <c r="R21">
-        <v>20830.70001471052</v>
+        <v>1193.69322603464</v>
       </c>
       <c r="S21">
-        <v>0.03173902795738649</v>
+        <v>0.002314158850946527</v>
       </c>
       <c r="T21">
-        <v>0.02276186415587722</v>
+        <v>0.001584333476128207</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H22">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I22">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J22">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N22">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O22">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P22">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q22">
-        <v>2.046876522863333</v>
+        <v>8.952503688917444</v>
       </c>
       <c r="R22">
-        <v>18.42188870577</v>
+        <v>80.572533200257</v>
       </c>
       <c r="S22">
-        <v>1.871253615248614E-05</v>
+        <v>0.0001041348741769866</v>
       </c>
       <c r="T22">
-        <v>2.012973773897692E-05</v>
+        <v>0.0001069401742604126</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H23">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I23">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J23">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>153.522748</v>
       </c>
       <c r="O23">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P23">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q23">
-        <v>3.15395427682889</v>
+        <v>15.87713495924578</v>
       </c>
       <c r="R23">
-        <v>28.38558849146001</v>
+        <v>142.894214633212</v>
       </c>
       <c r="S23">
-        <v>2.883343610091788E-05</v>
+        <v>0.0001846816833283005</v>
       </c>
       <c r="T23">
-        <v>3.10171481885374E-05</v>
+        <v>0.0001896568421859145</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H24">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I24">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J24">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N24">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O24">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P24">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q24">
-        <v>1.367884251816111</v>
+        <v>9.119513018450332</v>
       </c>
       <c r="R24">
-        <v>12.310958266345</v>
+        <v>82.07561716605299</v>
       </c>
       <c r="S24">
-        <v>1.250519180254161E-05</v>
+        <v>0.0001060775145959813</v>
       </c>
       <c r="T24">
-        <v>1.345227762337937E-05</v>
+        <v>0.0001089351476694123</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H25">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I25">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J25">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N25">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O25">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P25">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q25">
-        <v>0.7935832995725001</v>
+        <v>2.9471455423795</v>
       </c>
       <c r="R25">
-        <v>4.761499797435</v>
+        <v>17.682873254277</v>
       </c>
       <c r="S25">
-        <v>7.254935027778986E-06</v>
+        <v>3.428098338757201E-05</v>
       </c>
       <c r="T25">
-        <v>5.202927001536896E-06</v>
+        <v>2.346965488272796E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H26">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I26">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J26">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N26">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O26">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P26">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q26">
-        <v>2.311937023242222</v>
+        <v>7.874029508444554</v>
       </c>
       <c r="R26">
-        <v>20.80743320918</v>
+        <v>70.866265576001</v>
       </c>
       <c r="S26">
-        <v>2.113571807896486E-05</v>
+        <v>9.159014066007099E-05</v>
       </c>
       <c r="T26">
-        <v>2.273644034071724E-05</v>
+        <v>9.405749687733604E-05</v>
       </c>
     </row>
   </sheetData>
